--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2069.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2069.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159104910073908</v>
+        <v>1.305475234985352</v>
       </c>
       <c r="B1">
-        <v>2.97781381270194</v>
+        <v>3.813564777374268</v>
       </c>
       <c r="C1">
-        <v>4.331686220181004</v>
+        <v>3.86201548576355</v>
       </c>
       <c r="D1">
-        <v>3.120551021456186</v>
+        <v>2.997583627700806</v>
       </c>
       <c r="E1">
-        <v>1.202944150438423</v>
+        <v>1.045259952545166</v>
       </c>
     </row>
   </sheetData>
